--- a/Autobooking/Template Upload GL_V2.0.xlsx
+++ b/Autobooking/Template Upload GL_V2.0.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tuan.NguyenH12\Home Credit International a.s\SAP VN - Documents\FI CO MM AM\Documents for Task list FICO\GL Upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/61b59f9583074f6e/98.Others/GitHub/HuongLe/Autobooking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{6E9B77D1-9B88-4BF0-815D-9F76AC7B1835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{EC86EB15-C9C2-469B-9ABC-3D5659F07441}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{6E9B77D1-9B88-4BF0-815D-9F76AC7B1835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0FD3C1A-2E03-4426-A7CE-B3FF9A57CB89}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F2BFB760-25AC-4103-8254-482E7AEAA869}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F2BFB760-25AC-4103-8254-482E7AEAA869}"/>
   </bookViews>
   <sheets>
     <sheet name="Upload" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -163,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="110">
   <si>
     <t>Identification field</t>
   </si>
@@ -413,14 +412,96 @@
   <si>
     <t>City</t>
   </si>
+  <si>
+    <t>BB22042347</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>BOOK BANK 3.VIETCOMBANK</t>
+  </si>
+  <si>
+    <t>VND</t>
+  </si>
+  <si>
+    <t>Thu tien tu VCB- 20220423</t>
+  </si>
+  <si>
+    <t>VCB</t>
+  </si>
+  <si>
+    <t>3.VIETCOMBANK</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Thu tien KH tai VCB phat sinh- 20220423</t>
+  </si>
+  <si>
+    <t>Thu tien KH nop tai VCB (unpair)- 20220423</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>BB22061000</t>
+  </si>
+  <si>
+    <t>BB&lt;YYMMDD&gt;00</t>
+  </si>
+  <si>
+    <t>Số dòng có số dư &gt; 0 (Debit, Credit)</t>
+  </si>
+  <si>
+    <t>Theo Source data (cột G)</t>
+  </si>
+  <si>
+    <t>Lấy ngày trong file name</t>
+  </si>
+  <si>
+    <t>Thứ 2 = Doc date - 1,
+Khác = Doc date</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>Theo Source data (cột A)</t>
+  </si>
+  <si>
+    <t>Theo Source data (cột C hoặc cột D)</t>
+  </si>
+  <si>
+    <t>Theo Source data (cột E)</t>
+  </si>
+  <si>
+    <t>Theo Source data (cột B)</t>
+  </si>
+  <si>
+    <t>Theo Source data (ô A1)</t>
+  </si>
+  <si>
+    <t>101050020</t>
+  </si>
+  <si>
+    <t>901010002</t>
+  </si>
+  <si>
+    <t>2999000001</t>
+  </si>
+  <si>
+    <t>--&gt; Xuất file CSV, tên file = AUTO + cột key batch ID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -514,7 +595,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,6 +653,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,9 +806,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -822,7 +909,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -848,7 +935,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -857,7 +944,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -872,6 +959,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1630,7 +1729,7 @@
         <name val="Arial Unicode MS"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+      <numFmt numFmtId="165" formatCode="0;[Red]0"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1829,7 +1928,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -5664,30 +5763,34 @@
   <dimension ref="A1:AN1048547"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:AK13"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.44140625" style="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.44140625" style="54"/>
-    <col min="9" max="10" width="13.44140625" style="1"/>
-    <col min="11" max="11" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="13.44140625" style="1"/>
-    <col min="15" max="15" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="13.44140625" style="1"/>
-    <col min="20" max="20" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="13.44140625" style="1"/>
-    <col min="26" max="27" width="13.44140625" style="11"/>
-    <col min="28" max="28" width="21.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="37" width="13.44140625" style="11"/>
-    <col min="38" max="38" width="3.33203125" style="12" customWidth="1"/>
-    <col min="39" max="39" width="13.44140625" style="11"/>
-    <col min="40" max="40" width="40.44140625" style="11" customWidth="1"/>
-    <col min="41" max="16384" width="13.44140625" style="11"/>
+    <col min="1" max="1" width="13.42578125" style="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.42578125" style="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.42578125" style="54"/>
+    <col min="9" max="10" width="13.42578125" style="1"/>
+    <col min="11" max="11" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13.42578125" style="1"/>
+    <col min="15" max="15" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="13.42578125" style="1"/>
+    <col min="20" max="20" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="13.42578125" style="1"/>
+    <col min="26" max="27" width="13.42578125" style="11"/>
+    <col min="28" max="28" width="21.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="37" width="13.42578125" style="11"/>
+    <col min="38" max="38" width="3.28515625" style="12" customWidth="1"/>
+    <col min="39" max="39" width="13.42578125" style="11"/>
+    <col min="40" max="40" width="40.42578125" style="11" customWidth="1"/>
+    <col min="41" max="16384" width="13.42578125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -5923,7 +6026,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="33" customFormat="1" ht="66">
+    <row r="4" spans="1:40" s="33" customFormat="1" ht="63.75">
       <c r="A4" s="19" t="s">
         <v>41</v>
       </c>
@@ -11782,7 +11885,7 @@
       <c r="AJ80" s="41"/>
       <c r="AK80" s="41"/>
     </row>
-    <row r="81" spans="2:37">
+    <row r="81" spans="1:37">
       <c r="B81" s="36" t="str">
         <f>'[1]MM Input'!C84</f>
         <v>DOSM000001</v>
@@ -11856,7 +11959,7 @@
       <c r="AJ81" s="41"/>
       <c r="AK81" s="41"/>
     </row>
-    <row r="82" spans="2:37">
+    <row r="82" spans="1:37">
       <c r="B82" s="36" t="str">
         <f>'[1]MM Input'!C85</f>
         <v>DOSM000001</v>
@@ -11930,7 +12033,7 @@
       <c r="AJ82" s="41"/>
       <c r="AK82" s="41"/>
     </row>
-    <row r="83" spans="2:37">
+    <row r="83" spans="1:37">
       <c r="B83" s="36" t="str">
         <f>'[1]MM Input'!C86</f>
         <v>DOSM000001</v>
@@ -12004,7 +12107,7 @@
       <c r="AJ83" s="41"/>
       <c r="AK83" s="41"/>
     </row>
-    <row r="84" spans="2:37">
+    <row r="84" spans="1:37">
       <c r="B84" s="36" t="str">
         <f>'[1]MM Input'!C87</f>
         <v>DOSM000001</v>
@@ -12078,7 +12181,404 @@
       <c r="AJ84" s="41"/>
       <c r="AK84" s="41"/>
     </row>
-    <row r="1048547" spans="16:17" ht="27.6">
+    <row r="87" spans="1:37">
+      <c r="B87" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" t="s">
+        <v>83</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>78</v>
+      </c>
+      <c r="F87" t="s">
+        <v>84</v>
+      </c>
+      <c r="G87">
+        <v>20220423</v>
+      </c>
+      <c r="H87">
+        <v>20220423</v>
+      </c>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87" t="s">
+        <v>85</v>
+      </c>
+      <c r="L87" t="s">
+        <v>79</v>
+      </c>
+      <c r="M87">
+        <v>101050001</v>
+      </c>
+      <c r="N87" t="s">
+        <v>86</v>
+      </c>
+      <c r="O87">
+        <v>182219828</v>
+      </c>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87" t="s">
+        <v>87</v>
+      </c>
+      <c r="W87" t="s">
+        <v>88</v>
+      </c>
+      <c r="X87"/>
+      <c r="Y87"/>
+      <c r="Z87" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA87"/>
+      <c r="AB87"/>
+      <c r="AC87"/>
+      <c r="AD87"/>
+      <c r="AE87"/>
+      <c r="AF87"/>
+      <c r="AG87"/>
+      <c r="AH87"/>
+      <c r="AI87"/>
+      <c r="AJ87"/>
+    </row>
+    <row r="88" spans="1:37">
+      <c r="B88" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" t="s">
+        <v>83</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>78</v>
+      </c>
+      <c r="F88" t="s">
+        <v>84</v>
+      </c>
+      <c r="G88">
+        <v>20220423</v>
+      </c>
+      <c r="H88">
+        <v>20220423</v>
+      </c>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88" t="s">
+        <v>85</v>
+      </c>
+      <c r="L88" t="s">
+        <v>90</v>
+      </c>
+      <c r="M88">
+        <v>901010002</v>
+      </c>
+      <c r="N88" t="s">
+        <v>86</v>
+      </c>
+      <c r="O88">
+        <v>177298828</v>
+      </c>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88"/>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88" t="s">
+        <v>91</v>
+      </c>
+      <c r="W88" t="s">
+        <v>88</v>
+      </c>
+      <c r="X88"/>
+      <c r="Y88"/>
+      <c r="Z88" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA88"/>
+      <c r="AB88"/>
+      <c r="AC88"/>
+      <c r="AD88"/>
+      <c r="AE88"/>
+      <c r="AF88"/>
+      <c r="AG88"/>
+      <c r="AH88"/>
+      <c r="AI88"/>
+      <c r="AJ88"/>
+    </row>
+    <row r="89" spans="1:37">
+      <c r="B89" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" t="s">
+        <v>83</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>78</v>
+      </c>
+      <c r="F89" t="s">
+        <v>84</v>
+      </c>
+      <c r="G89">
+        <v>20220423</v>
+      </c>
+      <c r="H89">
+        <v>20220423</v>
+      </c>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89" t="s">
+        <v>85</v>
+      </c>
+      <c r="L89" t="s">
+        <v>90</v>
+      </c>
+      <c r="M89">
+        <v>2999000001</v>
+      </c>
+      <c r="N89" t="s">
+        <v>86</v>
+      </c>
+      <c r="O89">
+        <v>4921000</v>
+      </c>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89"/>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89"/>
+      <c r="V89" t="s">
+        <v>92</v>
+      </c>
+      <c r="W89" t="s">
+        <v>88</v>
+      </c>
+      <c r="X89"/>
+      <c r="Y89"/>
+      <c r="Z89" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA89"/>
+      <c r="AB89"/>
+      <c r="AC89"/>
+      <c r="AD89"/>
+      <c r="AE89"/>
+      <c r="AF89" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG89"/>
+      <c r="AH89"/>
+      <c r="AI89"/>
+      <c r="AJ89"/>
+    </row>
+    <row r="91" spans="1:37" s="59" customFormat="1" ht="51">
+      <c r="A91" s="57"/>
+      <c r="B91" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="E91" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="F91" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="G91" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="H91" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="I91" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="J91" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="K91" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="L91" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="M91" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="N91" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="O91" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="P91" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q91" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="R91" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="S91" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="T91" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="U91" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="V91" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="W91" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="X91" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y91" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z91" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA91" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB91" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC91" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD91" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE91" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF91" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG91" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH91" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI91" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ91" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK91" s="57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:37">
+      <c r="B92" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O92" s="1">
+        <v>3490655339</v>
+      </c>
+    </row>
+    <row r="93" spans="1:37">
+      <c r="B93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93" s="1">
+        <v>2</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O93" s="1">
+        <v>3322684406</v>
+      </c>
+    </row>
+    <row r="94" spans="1:37">
+      <c r="B94" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D94" s="1">
+        <v>3</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O94" s="1">
+        <v>167970933</v>
+      </c>
+    </row>
+    <row r="96" spans="1:37">
+      <c r="B96" s="60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1048547" spans="16:17" ht="27">
       <c r="P1048547" s="53" t="s">
         <v>81</v>
       </c>
@@ -12099,7 +12599,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DE6F63CA-14EA-4EA5-97C5-344ECE563894}">
           <x14:formula1>
             <xm:f>'C:\Users\Tuan.NguyenH12\Home Credit International a.s\SAP VN - Documents\FI CO MM AM\Documents for Task list FICO\GL Upload\[GL Upload Template_FICO_MM_V1.0.xlsx]Commodity'!#REF!</xm:f>
@@ -12112,29 +12612,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD48C85E-779E-4488-962B-B78B2B8F3F84}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000This item's classification is Internal. It was created by and is in property of the Home Credit Group. Do not distribute outside of the organization.</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="8bbf85fc-ff04-4052-a117-aa82b0642e71" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12372,19 +12857,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="8bbf85fc-ff04-4052-a117-aa82b0642e71" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F28C3E7-C824-4A81-9208-D939F366CE27}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F6714FA-BE23-4AA4-A8E4-F8B9A75B31CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="217ac0a9-0329-4a27-84a2-4ffdd79eeee7"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4f7298a2-3f19-4417-a8ac-0b72751c7aa8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="8bbf85fc-ff04-4052-a117-aa82b0642e71"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12410,20 +12905,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F6714FA-BE23-4AA4-A8E4-F8B9A75B31CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F28C3E7-C824-4A81-9208-D939F366CE27}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="217ac0a9-0329-4a27-84a2-4ffdd79eeee7"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4f7298a2-3f19-4417-a8ac-0b72751c7aa8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="8bbf85fc-ff04-4052-a117-aa82b0642e71"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Autobooking/Template Upload GL_V2.0.xlsx
+++ b/Autobooking/Template Upload GL_V2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/61b59f9583074f6e/98.Others/GitHub/HuongLe/Autobooking/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huongle/Documents/Python/HuongLe/Autobooking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{6E9B77D1-9B88-4BF0-815D-9F76AC7B1835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0FD3C1A-2E03-4426-A7CE-B3FF9A57CB89}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268E9CF1-5DF4-C540-90D2-F072F1736E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F2BFB760-25AC-4103-8254-482E7AEAA869}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{F2BFB760-25AC-4103-8254-482E7AEAA869}"/>
   </bookViews>
   <sheets>
     <sheet name="Upload" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -59,12 +59,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Identify file upload</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Identify file upload</t>
         </r>
       </text>
     </comment>
@@ -99,7 +108,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -108,12 +117,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Identify line items per FI documents</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Identify line items per FI documents</t>
         </r>
       </text>
     </comment>
@@ -386,9 +404,6 @@
     <t>Business Partner Type</t>
   </si>
   <si>
-    <t>Due date (Base line date)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trading partner: </t>
   </si>
   <si>
@@ -494,16 +509,19 @@
   <si>
     <t>--&gt; Xuất file CSV, tên file = AUTO + cột key batch ID</t>
   </si>
+  <si>
+    <t>w</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,6 +609,19 @@
     <font>
       <sz val="9"/>
       <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -806,7 +837,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -909,7 +940,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -935,7 +966,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -944,7 +975,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -953,12 +984,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -971,6 +996,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1729,7 +1760,7 @@
         <name val="Arial Unicode MS"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="0;[Red]0"/>
+      <numFmt numFmtId="164" formatCode="0;[Red]0"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1928,7 +1959,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -5442,7 +5473,7 @@
     <tableColumn id="32" xr3:uid="{EA8B1215-8227-4260-B7D2-E4D2DD40E32F}" name="Gross/Net" dataDxfId="4"/>
     <tableColumn id="33" xr3:uid="{CE6AC568-C862-43FA-BFD4-7BA729F6FDDC}" name="Tax Amount" dataDxfId="3"/>
     <tableColumn id="34" xr3:uid="{B6BDC148-70BC-4094-9A0E-40D26C1A1F07}" name="Business Partner Type" dataDxfId="2"/>
-    <tableColumn id="35" xr3:uid="{630F5037-DAA6-4D4A-8F8E-72488E30CF70}" name="Due date (Base line date)" dataDxfId="1"/>
+    <tableColumn id="35" xr3:uid="{630F5037-DAA6-4D4A-8F8E-72488E30CF70}" name="w" dataDxfId="1"/>
     <tableColumn id="36" xr3:uid="{CE910255-536C-4337-8A2C-8C5E78C185B6}" name="Trading partner: " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5763,37 +5794,39 @@
   <dimension ref="A1:AN1048547"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H103" sqref="H103"/>
+      <selection pane="bottomRight" activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1"/>
-    <col min="2" max="2" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.42578125" style="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.42578125" style="54"/>
-    <col min="9" max="10" width="13.42578125" style="1"/>
-    <col min="11" max="11" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="13.42578125" style="1"/>
-    <col min="15" max="15" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="13.42578125" style="1"/>
-    <col min="20" max="20" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="13.42578125" style="1"/>
-    <col min="26" max="27" width="13.42578125" style="11"/>
-    <col min="28" max="28" width="21.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="37" width="13.42578125" style="11"/>
-    <col min="38" max="38" width="3.28515625" style="12" customWidth="1"/>
-    <col min="39" max="39" width="13.42578125" style="11"/>
-    <col min="40" max="40" width="40.42578125" style="11" customWidth="1"/>
-    <col min="41" max="16384" width="13.42578125" style="11"/>
+    <col min="1" max="1" width="13.5" style="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5" style="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.5" style="54"/>
+    <col min="9" max="10" width="13.5" style="1"/>
+    <col min="11" max="11" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13.5" style="1"/>
+    <col min="15" max="15" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" style="1" customWidth="1"/>
+    <col min="18" max="19" width="13.5" style="1"/>
+    <col min="20" max="20" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="13.5" style="1"/>
+    <col min="26" max="27" width="13.5" style="11"/>
+    <col min="28" max="28" width="21.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="37" width="13.5" style="11"/>
+    <col min="38" max="38" width="3.33203125" style="12" customWidth="1"/>
+    <col min="39" max="39" width="13.5" style="11"/>
+    <col min="40" max="40" width="40.5" style="11" customWidth="1"/>
+    <col min="41" max="16384" width="13.5" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5825,18 +5858,18 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
       <c r="Z1" s="10"/>
-      <c r="AA1" s="55" t="s">
+      <c r="AA1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
@@ -5941,7 +5974,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>38</v>
       </c>
@@ -6026,7 +6059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="33" customFormat="1" ht="63.75">
+    <row r="4" spans="1:40" s="33" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>41</v>
       </c>
@@ -6118,7 +6151,7 @@
         <v>69</v>
       </c>
       <c r="AE4" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF4" s="29" t="s">
         <v>70</v>
@@ -6133,20 +6166,20 @@
         <v>73</v>
       </c>
       <c r="AJ4" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK4" s="30" t="s">
         <v>74</v>
-      </c>
-      <c r="AK4" s="30" t="s">
-        <v>75</v>
       </c>
       <c r="AL4" s="12"/>
       <c r="AM4" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN4" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="AN4" s="32" t="s">
-        <v>77</v>
-      </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13" t="str">
         <f>'[1]MM Input'!C6</f>
@@ -6160,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="13" t="str">
         <f>IF('[1]MM Input'!E5="Invoice","KR","KG")</f>
@@ -6178,7 +6211,7 @@
         <v>01GTKT3/001**TK/18P</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M5" s="37" t="str">
         <f>'[1]MM Input'!R6</f>
@@ -6222,14 +6255,14 @@
         <v>I3</v>
       </c>
       <c r="AG5" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH5" s="40"/>
       <c r="AI5" s="40"/>
       <c r="AJ5" s="40"/>
       <c r="AK5" s="40"/>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13" t="str">
         <f>'[1]MM Input'!C7</f>
@@ -6243,7 +6276,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" s="13" t="str">
         <f>IF('[1]MM Input'!E6="Invoice","KR","KG")</f>
@@ -6261,7 +6294,7 @@
         <v>80083&amp;10204</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M6" s="37" t="str">
         <f>'[1]MM Input'!R7</f>
@@ -6305,14 +6338,14 @@
         <v>I3</v>
       </c>
       <c r="AG6" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH6" s="41"/>
       <c r="AI6" s="41"/>
       <c r="AJ6" s="41"/>
       <c r="AK6" s="41"/>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="13" t="str">
         <f>'[1]MM Input'!C8</f>
@@ -6327,7 +6360,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="13" t="str">
         <f>IF('[1]MM Input'!E7="Invoice","KR","KG")</f>
@@ -6345,7 +6378,7 @@
         <v>80083&amp;10204</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M7" s="37" t="str">
         <f>'[1]MM Input'!R8</f>
@@ -6389,14 +6422,14 @@
         <v>I3</v>
       </c>
       <c r="AG7" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH7" s="41"/>
       <c r="AI7" s="41"/>
       <c r="AJ7" s="41"/>
       <c r="AK7" s="41"/>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="str">
         <f>'[1]MM Input'!C9</f>
         <v>DOSM000001</v>
@@ -6410,7 +6443,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="43" t="str">
         <f>IF('[1]MM Input'!E8="Invoice","KR","KG")</f>
@@ -6428,7 +6461,7 @@
         <v>80083&amp;10204</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M8" s="37" t="str">
         <f>'[1]MM Input'!R9</f>
@@ -6472,14 +6505,14 @@
         <v>I3</v>
       </c>
       <c r="AG8" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH8" s="42"/>
       <c r="AI8" s="42"/>
       <c r="AJ8" s="42"/>
       <c r="AK8" s="42"/>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="str">
         <f>'[1]MM Input'!C10</f>
         <v>DOSM000001</v>
@@ -6493,7 +6526,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="13" t="str">
         <f>IF('[1]MM Input'!E9="Invoice","KR","KG")</f>
@@ -6511,7 +6544,7 @@
         <v>77935&amp;10078</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" s="37" t="str">
         <f>'[1]MM Input'!R10</f>
@@ -6555,14 +6588,14 @@
         <v>I3</v>
       </c>
       <c r="AG9" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH9" s="41"/>
       <c r="AI9" s="41"/>
       <c r="AJ9" s="41"/>
       <c r="AK9" s="41"/>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="str">
         <f>'[1]MM Input'!C11</f>
         <v>DOSM000001</v>
@@ -6576,7 +6609,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" s="13" t="str">
         <f>IF('[1]MM Input'!E10="Invoice","KR","KG")</f>
@@ -6594,7 +6627,7 @@
         <v>77935&amp;10078</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M10" s="37" t="str">
         <f>'[1]MM Input'!R11</f>
@@ -6638,14 +6671,14 @@
         <v>I3</v>
       </c>
       <c r="AG10" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH10" s="41"/>
       <c r="AI10" s="41"/>
       <c r="AJ10" s="41"/>
       <c r="AK10" s="41"/>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="str">
         <f>'[1]MM Input'!C12</f>
         <v>DOSM000001</v>
@@ -6659,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="13" t="str">
         <f>IF('[1]MM Input'!E11="Invoice","KR","KG")</f>
@@ -6677,7 +6710,7 @@
         <v>79862&amp;70077</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M11" s="37" t="str">
         <f>'[1]MM Input'!R12</f>
@@ -6721,14 +6754,14 @@
         <v>I3</v>
       </c>
       <c r="AG11" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH11" s="41"/>
       <c r="AI11" s="41"/>
       <c r="AJ11" s="41"/>
       <c r="AK11" s="41"/>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="str">
         <f>'[1]MM Input'!C13</f>
         <v>DOSM000001</v>
@@ -6742,7 +6775,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" s="13" t="str">
         <f>IF('[1]MM Input'!E12="Invoice","KR","KG")</f>
@@ -6760,7 +6793,7 @@
         <v>01GTKT3/003**AA/19P</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M12" s="37" t="str">
         <f>'[1]MM Input'!R13</f>
@@ -6804,14 +6837,14 @@
         <v>I3</v>
       </c>
       <c r="AG12" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH12" s="41"/>
       <c r="AI12" s="41"/>
       <c r="AJ12" s="41"/>
       <c r="AK12" s="41"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="str">
         <f>'[1]MM Input'!C14</f>
         <v>DOSM000001</v>
@@ -6825,7 +6858,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" s="13" t="str">
         <f>IF('[1]MM Input'!E13="Invoice","KR","KG")</f>
@@ -6843,7 +6876,7 @@
         <v>01GTKT3/003**AA/19P</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M13" s="37" t="str">
         <f>'[1]MM Input'!R14</f>
@@ -6887,14 +6920,14 @@
         <v>I3</v>
       </c>
       <c r="AG13" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH13" s="41"/>
       <c r="AI13" s="41"/>
       <c r="AJ13" s="41"/>
       <c r="AK13" s="41"/>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="str">
         <f>'[1]MM Input'!C15</f>
         <v>DOSM000001</v>
@@ -6908,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14" s="13" t="str">
         <f>IF('[1]MM Input'!E14="Invoice","KR","KG")</f>
@@ -6926,7 +6959,7 @@
         <v>01GTKT0/001**CH/20E</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M14" s="47" t="str">
         <f>'[1]MM Input'!R15</f>
@@ -6970,14 +7003,14 @@
         <v>I3</v>
       </c>
       <c r="AG14" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH14" s="13"/>
       <c r="AI14" s="13"/>
       <c r="AJ14" s="13"/>
       <c r="AK14" s="13"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="str">
         <f>'[1]MM Input'!C16</f>
         <v>DOSM000001</v>
@@ -6991,7 +7024,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="13" t="str">
         <f>IF('[1]MM Input'!E15="Invoice","KR","KG")</f>
@@ -7009,7 +7042,7 @@
         <v>01GTKT3/001**KN/15P</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15" s="47" t="str">
         <f>'[1]MM Input'!R16</f>
@@ -7053,14 +7086,14 @@
         <v>I3</v>
       </c>
       <c r="AG15" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH15" s="13"/>
       <c r="AI15" s="13"/>
       <c r="AJ15" s="13"/>
       <c r="AK15" s="13"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="str">
         <f>'[1]MM Input'!C17</f>
         <v>DOSM000001</v>
@@ -7074,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" s="13" t="str">
         <f>IF('[1]MM Input'!E16="Invoice","KR","KG")</f>
@@ -7092,7 +7125,7 @@
         <v>107138&amp;18271</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M16" s="47" t="str">
         <f>'[1]MM Input'!R17</f>
@@ -7136,14 +7169,14 @@
         <v>I3</v>
       </c>
       <c r="AG16" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH16" s="13"/>
       <c r="AI16" s="13"/>
       <c r="AJ16" s="13"/>
       <c r="AK16" s="13"/>
     </row>
-    <row r="17" spans="2:37">
+    <row r="17" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="str">
         <f>'[1]MM Input'!C18</f>
         <v>DOSM000001</v>
@@ -7154,7 +7187,7 @@
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" s="13" t="str">
         <f>IF('[1]MM Input'!E17="Invoice","KR","KG")</f>
@@ -7172,7 +7205,7 @@
         <v>01GTKT3/002**BH/18P</v>
       </c>
       <c r="L17" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M17" s="47" t="str">
         <f>'[1]MM Input'!R18</f>
@@ -7216,14 +7249,14 @@
         <v>I3</v>
       </c>
       <c r="AG17" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH17" s="13"/>
       <c r="AI17" s="13"/>
       <c r="AJ17" s="13"/>
       <c r="AK17" s="13"/>
     </row>
-    <row r="18" spans="2:37">
+    <row r="18" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B18" s="36" t="str">
         <f>'[1]MM Input'!C19</f>
         <v>FOREG000001</v>
@@ -7297,7 +7330,7 @@
       <c r="AJ18" s="41"/>
       <c r="AK18" s="41"/>
     </row>
-    <row r="19" spans="2:37">
+    <row r="19" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="str">
         <f>'[1]MM Input'!C20</f>
         <v>FOREG000001</v>
@@ -7371,7 +7404,7 @@
       <c r="AJ19" s="41"/>
       <c r="AK19" s="41"/>
     </row>
-    <row r="20" spans="2:37">
+    <row r="20" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B20" s="36" t="str">
         <f>'[1]MM Input'!C21</f>
         <v>FOREG000001</v>
@@ -7445,7 +7478,7 @@
       <c r="AJ20" s="41"/>
       <c r="AK20" s="41"/>
     </row>
-    <row r="21" spans="2:37">
+    <row r="21" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B21" s="36" t="str">
         <f>'[1]MM Input'!C24</f>
         <v>DOSM000001</v>
@@ -7519,7 +7552,7 @@
       <c r="AJ21" s="41"/>
       <c r="AK21" s="41"/>
     </row>
-    <row r="22" spans="2:37">
+    <row r="22" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B22" s="36" t="str">
         <f>'[1]MM Input'!C25</f>
         <v>DOSM000001</v>
@@ -7593,7 +7626,7 @@
       <c r="AJ22" s="41"/>
       <c r="AK22" s="41"/>
     </row>
-    <row r="23" spans="2:37">
+    <row r="23" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="str">
         <f>'[1]MM Input'!C26</f>
         <v>FOREG000001</v>
@@ -7667,7 +7700,7 @@
       <c r="AJ23" s="41"/>
       <c r="AK23" s="41"/>
     </row>
-    <row r="24" spans="2:37">
+    <row r="24" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B24" s="36" t="str">
         <f>'[1]MM Input'!C27</f>
         <v>DOSM000001</v>
@@ -7741,7 +7774,7 @@
       <c r="AJ24" s="41"/>
       <c r="AK24" s="41"/>
     </row>
-    <row r="25" spans="2:37">
+    <row r="25" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B25" s="36" t="str">
         <f>'[1]MM Input'!C28</f>
         <v>DOSM000001</v>
@@ -7815,7 +7848,7 @@
       <c r="AJ25" s="41"/>
       <c r="AK25" s="41"/>
     </row>
-    <row r="26" spans="2:37">
+    <row r="26" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B26" s="36" t="str">
         <f>'[1]MM Input'!C29</f>
         <v>DOSM000001</v>
@@ -7889,7 +7922,7 @@
       <c r="AJ26" s="41"/>
       <c r="AK26" s="41"/>
     </row>
-    <row r="27" spans="2:37">
+    <row r="27" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B27" s="36" t="str">
         <f>'[1]MM Input'!C30</f>
         <v>DOSM000001</v>
@@ -7963,7 +7996,7 @@
       <c r="AJ27" s="41"/>
       <c r="AK27" s="41"/>
     </row>
-    <row r="28" spans="2:37">
+    <row r="28" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B28" s="36" t="str">
         <f>'[1]MM Input'!C31</f>
         <v>DOSM000001</v>
@@ -8037,7 +8070,7 @@
       <c r="AJ28" s="41"/>
       <c r="AK28" s="41"/>
     </row>
-    <row r="29" spans="2:37">
+    <row r="29" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B29" s="36" t="str">
         <f>'[1]MM Input'!C32</f>
         <v>DOSM000001</v>
@@ -8111,7 +8144,7 @@
       <c r="AJ29" s="41"/>
       <c r="AK29" s="41"/>
     </row>
-    <row r="30" spans="2:37">
+    <row r="30" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B30" s="36" t="str">
         <f>'[1]MM Input'!C33</f>
         <v>DOSM000001</v>
@@ -8185,7 +8218,7 @@
       <c r="AJ30" s="41"/>
       <c r="AK30" s="41"/>
     </row>
-    <row r="31" spans="2:37">
+    <row r="31" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B31" s="36" t="str">
         <f>'[1]MM Input'!C34</f>
         <v>DOSM000001</v>
@@ -8259,7 +8292,7 @@
       <c r="AJ31" s="41"/>
       <c r="AK31" s="41"/>
     </row>
-    <row r="32" spans="2:37">
+    <row r="32" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B32" s="36" t="str">
         <f>'[1]MM Input'!C35</f>
         <v>DOSM000001</v>
@@ -8333,7 +8366,7 @@
       <c r="AJ32" s="41"/>
       <c r="AK32" s="41"/>
     </row>
-    <row r="33" spans="2:37">
+    <row r="33" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B33" s="36" t="str">
         <f>'[1]MM Input'!C36</f>
         <v>DOSM000001</v>
@@ -8407,7 +8440,7 @@
       <c r="AJ33" s="41"/>
       <c r="AK33" s="41"/>
     </row>
-    <row r="34" spans="2:37">
+    <row r="34" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B34" s="36" t="str">
         <f>'[1]MM Input'!C37</f>
         <v>DOSM000001</v>
@@ -8481,7 +8514,7 @@
       <c r="AJ34" s="41"/>
       <c r="AK34" s="41"/>
     </row>
-    <row r="35" spans="2:37">
+    <row r="35" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B35" s="36" t="str">
         <f>'[1]MM Input'!C38</f>
         <v>DOSM000001</v>
@@ -8555,7 +8588,7 @@
       <c r="AJ35" s="41"/>
       <c r="AK35" s="41"/>
     </row>
-    <row r="36" spans="2:37">
+    <row r="36" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B36" s="36" t="str">
         <f>'[1]MM Input'!C39</f>
         <v>DOSM000001</v>
@@ -8629,7 +8662,7 @@
       <c r="AJ36" s="41"/>
       <c r="AK36" s="41"/>
     </row>
-    <row r="37" spans="2:37">
+    <row r="37" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B37" s="36" t="str">
         <f>'[1]MM Input'!C40</f>
         <v>DOSM000001</v>
@@ -8703,7 +8736,7 @@
       <c r="AJ37" s="41"/>
       <c r="AK37" s="41"/>
     </row>
-    <row r="38" spans="2:37">
+    <row r="38" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B38" s="36" t="str">
         <f>'[1]MM Input'!C41</f>
         <v>DOSM000001</v>
@@ -8777,7 +8810,7 @@
       <c r="AJ38" s="41"/>
       <c r="AK38" s="41"/>
     </row>
-    <row r="39" spans="2:37">
+    <row r="39" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B39" s="36" t="str">
         <f>'[1]MM Input'!C42</f>
         <v>DOSM000001</v>
@@ -8851,7 +8884,7 @@
       <c r="AJ39" s="41"/>
       <c r="AK39" s="41"/>
     </row>
-    <row r="40" spans="2:37">
+    <row r="40" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B40" s="36" t="str">
         <f>'[1]MM Input'!C43</f>
         <v>DOSM000001</v>
@@ -8925,7 +8958,7 @@
       <c r="AJ40" s="41"/>
       <c r="AK40" s="41"/>
     </row>
-    <row r="41" spans="2:37">
+    <row r="41" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B41" s="36" t="str">
         <f>'[1]MM Input'!C44</f>
         <v>DOSM000001</v>
@@ -8999,7 +9032,7 @@
       <c r="AJ41" s="41"/>
       <c r="AK41" s="41"/>
     </row>
-    <row r="42" spans="2:37">
+    <row r="42" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B42" s="36" t="str">
         <f>'[1]MM Input'!C45</f>
         <v>DOSM000001</v>
@@ -9073,7 +9106,7 @@
       <c r="AJ42" s="41"/>
       <c r="AK42" s="41"/>
     </row>
-    <row r="43" spans="2:37">
+    <row r="43" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B43" s="36" t="str">
         <f>'[1]MM Input'!C46</f>
         <v>DOSM000001</v>
@@ -9147,7 +9180,7 @@
       <c r="AJ43" s="41"/>
       <c r="AK43" s="41"/>
     </row>
-    <row r="44" spans="2:37">
+    <row r="44" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B44" s="36" t="str">
         <f>'[1]MM Input'!C47</f>
         <v>DOSM000001</v>
@@ -9221,7 +9254,7 @@
       <c r="AJ44" s="41"/>
       <c r="AK44" s="41"/>
     </row>
-    <row r="45" spans="2:37">
+    <row r="45" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B45" s="36" t="str">
         <f>'[1]MM Input'!C48</f>
         <v>DOSM000001</v>
@@ -9295,7 +9328,7 @@
       <c r="AJ45" s="41"/>
       <c r="AK45" s="41"/>
     </row>
-    <row r="46" spans="2:37">
+    <row r="46" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B46" s="36" t="str">
         <f>'[1]MM Input'!C49</f>
         <v>DOSM000001</v>
@@ -9369,7 +9402,7 @@
       <c r="AJ46" s="41"/>
       <c r="AK46" s="41"/>
     </row>
-    <row r="47" spans="2:37">
+    <row r="47" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B47" s="36" t="str">
         <f>'[1]MM Input'!C50</f>
         <v>DOSM000001</v>
@@ -9443,7 +9476,7 @@
       <c r="AJ47" s="41"/>
       <c r="AK47" s="41"/>
     </row>
-    <row r="48" spans="2:37">
+    <row r="48" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B48" s="36" t="str">
         <f>'[1]MM Input'!C51</f>
         <v>DOSM000001</v>
@@ -9517,7 +9550,7 @@
       <c r="AJ48" s="41"/>
       <c r="AK48" s="41"/>
     </row>
-    <row r="49" spans="2:37">
+    <row r="49" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B49" s="36" t="str">
         <f>'[1]MM Input'!C52</f>
         <v>DOSM000001</v>
@@ -9591,7 +9624,7 @@
       <c r="AJ49" s="41"/>
       <c r="AK49" s="41"/>
     </row>
-    <row r="50" spans="2:37">
+    <row r="50" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B50" s="36" t="str">
         <f>'[1]MM Input'!C53</f>
         <v>DOSM000001</v>
@@ -9665,7 +9698,7 @@
       <c r="AJ50" s="41"/>
       <c r="AK50" s="41"/>
     </row>
-    <row r="51" spans="2:37">
+    <row r="51" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B51" s="36" t="str">
         <f>'[1]MM Input'!C54</f>
         <v>DOSM000001</v>
@@ -9739,7 +9772,7 @@
       <c r="AJ51" s="41"/>
       <c r="AK51" s="41"/>
     </row>
-    <row r="52" spans="2:37">
+    <row r="52" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B52" s="36" t="str">
         <f>'[1]MM Input'!C55</f>
         <v>DOSM000001</v>
@@ -9813,7 +9846,7 @@
       <c r="AJ52" s="41"/>
       <c r="AK52" s="41"/>
     </row>
-    <row r="53" spans="2:37">
+    <row r="53" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B53" s="36" t="str">
         <f>'[1]MM Input'!C56</f>
         <v>DOSM000001</v>
@@ -9887,7 +9920,7 @@
       <c r="AJ53" s="41"/>
       <c r="AK53" s="41"/>
     </row>
-    <row r="54" spans="2:37">
+    <row r="54" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B54" s="36" t="str">
         <f>'[1]MM Input'!C57</f>
         <v>DOSM000001</v>
@@ -9961,7 +9994,7 @@
       <c r="AJ54" s="41"/>
       <c r="AK54" s="41"/>
     </row>
-    <row r="55" spans="2:37">
+    <row r="55" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B55" s="36" t="str">
         <f>'[1]MM Input'!C58</f>
         <v>DOSM000001</v>
@@ -10035,7 +10068,7 @@
       <c r="AJ55" s="41"/>
       <c r="AK55" s="41"/>
     </row>
-    <row r="56" spans="2:37">
+    <row r="56" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B56" s="36" t="str">
         <f>'[1]MM Input'!C59</f>
         <v>DOSM000001</v>
@@ -10109,7 +10142,7 @@
       <c r="AJ56" s="41"/>
       <c r="AK56" s="41"/>
     </row>
-    <row r="57" spans="2:37">
+    <row r="57" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B57" s="36" t="str">
         <f>'[1]MM Input'!C60</f>
         <v>DOSM000001</v>
@@ -10183,7 +10216,7 @@
       <c r="AJ57" s="41"/>
       <c r="AK57" s="41"/>
     </row>
-    <row r="58" spans="2:37">
+    <row r="58" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B58" s="36" t="str">
         <f>'[1]MM Input'!C61</f>
         <v>DOSM000001</v>
@@ -10257,7 +10290,7 @@
       <c r="AJ58" s="41"/>
       <c r="AK58" s="41"/>
     </row>
-    <row r="59" spans="2:37">
+    <row r="59" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B59" s="36" t="str">
         <f>'[1]MM Input'!C62</f>
         <v>DOSM000001</v>
@@ -10331,7 +10364,7 @@
       <c r="AJ59" s="41"/>
       <c r="AK59" s="41"/>
     </row>
-    <row r="60" spans="2:37">
+    <row r="60" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B60" s="36" t="str">
         <f>'[1]MM Input'!C63</f>
         <v>DOSM000001</v>
@@ -10405,7 +10438,7 @@
       <c r="AJ60" s="41"/>
       <c r="AK60" s="41"/>
     </row>
-    <row r="61" spans="2:37">
+    <row r="61" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B61" s="36" t="str">
         <f>'[1]MM Input'!C64</f>
         <v>DOSM000001</v>
@@ -10479,7 +10512,7 @@
       <c r="AJ61" s="41"/>
       <c r="AK61" s="41"/>
     </row>
-    <row r="62" spans="2:37">
+    <row r="62" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B62" s="36" t="str">
         <f>'[1]MM Input'!C65</f>
         <v>DOSM000001</v>
@@ -10553,7 +10586,7 @@
       <c r="AJ62" s="41"/>
       <c r="AK62" s="41"/>
     </row>
-    <row r="63" spans="2:37">
+    <row r="63" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B63" s="36" t="str">
         <f>'[1]MM Input'!C66</f>
         <v>DOSM000001</v>
@@ -10627,7 +10660,7 @@
       <c r="AJ63" s="41"/>
       <c r="AK63" s="41"/>
     </row>
-    <row r="64" spans="2:37">
+    <row r="64" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B64" s="36" t="str">
         <f>'[1]MM Input'!C67</f>
         <v>DOSM000001</v>
@@ -10701,7 +10734,7 @@
       <c r="AJ64" s="41"/>
       <c r="AK64" s="41"/>
     </row>
-    <row r="65" spans="2:37">
+    <row r="65" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B65" s="36" t="str">
         <f>'[1]MM Input'!C68</f>
         <v>DOSM000001</v>
@@ -10775,7 +10808,7 @@
       <c r="AJ65" s="41"/>
       <c r="AK65" s="41"/>
     </row>
-    <row r="66" spans="2:37">
+    <row r="66" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B66" s="36" t="str">
         <f>'[1]MM Input'!C69</f>
         <v>DOSM000001</v>
@@ -10849,7 +10882,7 @@
       <c r="AJ66" s="41"/>
       <c r="AK66" s="41"/>
     </row>
-    <row r="67" spans="2:37">
+    <row r="67" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B67" s="36" t="str">
         <f>'[1]MM Input'!C70</f>
         <v>DOSM000001</v>
@@ -10923,7 +10956,7 @@
       <c r="AJ67" s="41"/>
       <c r="AK67" s="41"/>
     </row>
-    <row r="68" spans="2:37">
+    <row r="68" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B68" s="36" t="str">
         <f>'[1]MM Input'!C71</f>
         <v>DOSM000001</v>
@@ -10997,7 +11030,7 @@
       <c r="AJ68" s="41"/>
       <c r="AK68" s="41"/>
     </row>
-    <row r="69" spans="2:37">
+    <row r="69" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B69" s="36" t="str">
         <f>'[1]MM Input'!C72</f>
         <v>DOSM000001</v>
@@ -11071,7 +11104,7 @@
       <c r="AJ69" s="41"/>
       <c r="AK69" s="41"/>
     </row>
-    <row r="70" spans="2:37">
+    <row r="70" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B70" s="36" t="str">
         <f>'[1]MM Input'!C73</f>
         <v>DOSM000001</v>
@@ -11145,7 +11178,7 @@
       <c r="AJ70" s="41"/>
       <c r="AK70" s="41"/>
     </row>
-    <row r="71" spans="2:37">
+    <row r="71" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B71" s="36" t="str">
         <f>'[1]MM Input'!C74</f>
         <v>DOSM000001</v>
@@ -11219,7 +11252,7 @@
       <c r="AJ71" s="41"/>
       <c r="AK71" s="41"/>
     </row>
-    <row r="72" spans="2:37">
+    <row r="72" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B72" s="36" t="str">
         <f>'[1]MM Input'!C75</f>
         <v>DOSM000001</v>
@@ -11293,7 +11326,7 @@
       <c r="AJ72" s="41"/>
       <c r="AK72" s="41"/>
     </row>
-    <row r="73" spans="2:37">
+    <row r="73" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B73" s="36" t="str">
         <f>'[1]MM Input'!C76</f>
         <v>DOSM000001</v>
@@ -11367,7 +11400,7 @@
       <c r="AJ73" s="41"/>
       <c r="AK73" s="41"/>
     </row>
-    <row r="74" spans="2:37">
+    <row r="74" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B74" s="36" t="str">
         <f>'[1]MM Input'!C77</f>
         <v>DOSM000001</v>
@@ -11441,7 +11474,7 @@
       <c r="AJ74" s="41"/>
       <c r="AK74" s="41"/>
     </row>
-    <row r="75" spans="2:37">
+    <row r="75" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B75" s="36" t="str">
         <f>'[1]MM Input'!C78</f>
         <v>DOSM000001</v>
@@ -11515,7 +11548,7 @@
       <c r="AJ75" s="41"/>
       <c r="AK75" s="41"/>
     </row>
-    <row r="76" spans="2:37">
+    <row r="76" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B76" s="36" t="str">
         <f>'[1]MM Input'!C79</f>
         <v>DOSM000001</v>
@@ -11589,7 +11622,7 @@
       <c r="AJ76" s="41"/>
       <c r="AK76" s="41"/>
     </row>
-    <row r="77" spans="2:37">
+    <row r="77" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B77" s="36" t="str">
         <f>'[1]MM Input'!C80</f>
         <v>DOSM000001</v>
@@ -11663,7 +11696,7 @@
       <c r="AJ77" s="41"/>
       <c r="AK77" s="41"/>
     </row>
-    <row r="78" spans="2:37">
+    <row r="78" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B78" s="36" t="str">
         <f>'[1]MM Input'!C81</f>
         <v>DOSM000001</v>
@@ -11737,7 +11770,7 @@
       <c r="AJ78" s="41"/>
       <c r="AK78" s="41"/>
     </row>
-    <row r="79" spans="2:37">
+    <row r="79" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B79" s="36" t="str">
         <f>'[1]MM Input'!C82</f>
         <v>DOSM000001</v>
@@ -11811,7 +11844,7 @@
       <c r="AJ79" s="41"/>
       <c r="AK79" s="41"/>
     </row>
-    <row r="80" spans="2:37">
+    <row r="80" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B80" s="36" t="str">
         <f>'[1]MM Input'!C83</f>
         <v>DOSM000001</v>
@@ -11885,7 +11918,7 @@
       <c r="AJ80" s="41"/>
       <c r="AK80" s="41"/>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B81" s="36" t="str">
         <f>'[1]MM Input'!C84</f>
         <v>DOSM000001</v>
@@ -11959,7 +11992,7 @@
       <c r="AJ81" s="41"/>
       <c r="AK81" s="41"/>
     </row>
-    <row r="82" spans="1:37">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B82" s="36" t="str">
         <f>'[1]MM Input'!C85</f>
         <v>DOSM000001</v>
@@ -12033,7 +12066,7 @@
       <c r="AJ82" s="41"/>
       <c r="AK82" s="41"/>
     </row>
-    <row r="83" spans="1:37">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B83" s="36" t="str">
         <f>'[1]MM Input'!C86</f>
         <v>DOSM000001</v>
@@ -12107,7 +12140,7 @@
       <c r="AJ83" s="41"/>
       <c r="AK83" s="41"/>
     </row>
-    <row r="84" spans="1:37">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B84" s="36" t="str">
         <f>'[1]MM Input'!C87</f>
         <v>DOSM000001</v>
@@ -12181,21 +12214,21 @@
       <c r="AJ84" s="41"/>
       <c r="AK84" s="41"/>
     </row>
-    <row r="87" spans="1:37">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G87">
         <v>20220423</v>
@@ -12206,16 +12239,16 @@
       <c r="I87"/>
       <c r="J87"/>
       <c r="K87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M87">
         <v>101050001</v>
       </c>
       <c r="N87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O87">
         <v>182219828</v>
@@ -12227,15 +12260,15 @@
       <c r="T87"/>
       <c r="U87"/>
       <c r="V87" t="s">
+        <v>86</v>
+      </c>
+      <c r="W87" t="s">
         <v>87</v>
-      </c>
-      <c r="W87" t="s">
-        <v>88</v>
       </c>
       <c r="X87"/>
       <c r="Y87"/>
       <c r="Z87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AA87"/>
       <c r="AB87"/>
@@ -12248,21 +12281,21 @@
       <c r="AI87"/>
       <c r="AJ87"/>
     </row>
-    <row r="88" spans="1:37">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D88">
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G88">
         <v>20220423</v>
@@ -12273,16 +12306,16 @@
       <c r="I88"/>
       <c r="J88"/>
       <c r="K88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M88">
         <v>901010002</v>
       </c>
       <c r="N88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O88">
         <v>177298828</v>
@@ -12294,15 +12327,15 @@
       <c r="T88"/>
       <c r="U88"/>
       <c r="V88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X88"/>
       <c r="Y88"/>
       <c r="Z88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AA88"/>
       <c r="AB88"/>
@@ -12315,21 +12348,21 @@
       <c r="AI88"/>
       <c r="AJ88"/>
     </row>
-    <row r="89" spans="1:37">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C89" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D89">
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G89">
         <v>20220423</v>
@@ -12340,16 +12373,16 @@
       <c r="I89"/>
       <c r="J89"/>
       <c r="K89" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M89">
         <v>2999000001</v>
       </c>
       <c r="N89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O89">
         <v>4921000</v>
@@ -12361,15 +12394,15 @@
       <c r="T89"/>
       <c r="U89"/>
       <c r="V89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X89"/>
       <c r="Y89"/>
       <c r="Z89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AA89"/>
       <c r="AB89"/>
@@ -12377,210 +12410,210 @@
       <c r="AD89"/>
       <c r="AE89"/>
       <c r="AF89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG89"/>
       <c r="AH89"/>
       <c r="AI89"/>
       <c r="AJ89"/>
     </row>
-    <row r="91" spans="1:37" s="59" customFormat="1" ht="51">
-      <c r="A91" s="57"/>
-      <c r="B91" s="57" t="s">
+    <row r="91" spans="1:37" s="57" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A91" s="55"/>
+      <c r="B91" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="C91" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="D91" s="57" t="s">
+      <c r="E91" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="F91" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="E91" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="F91" s="57" t="s">
+      <c r="G91" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="G91" s="58" t="s">
+      <c r="H91" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="H91" s="58" t="s">
+      <c r="I91" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="I91" s="57" t="s">
+      <c r="J91" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="K91" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="J91" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="K91" s="57" t="s">
+      <c r="L91" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="L91" s="57" t="s">
+      <c r="M91" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="M91" s="57" t="s">
+      <c r="N91" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="O91" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="P91" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q91" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="R91" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="S91" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="T91" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="U91" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="V91" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="N91" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="O91" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="P91" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q91" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="R91" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="S91" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="T91" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="U91" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="V91" s="57" t="s">
+      <c r="W91" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="W91" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="X91" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y91" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z91" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA91" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB91" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC91" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD91" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE91" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF91" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG91" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH91" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI91" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ91" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK91" s="57" t="s">
-        <v>100</v>
+      <c r="X91" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y91" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z91" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA91" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB91" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC91" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD91" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE91" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF91" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG91" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH91" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI91" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ91" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK91" s="55" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:37">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L92" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L92" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="M92" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O92" s="1">
         <v>3490655339</v>
       </c>
     </row>
-    <row r="93" spans="1:37">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D93" s="1">
         <v>2</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O93" s="1">
         <v>3322684406</v>
       </c>
     </row>
-    <row r="94" spans="1:37">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D94" s="1">
         <v>3</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O94" s="1">
         <v>167970933</v>
       </c>
     </row>
-    <row r="96" spans="1:37">
-      <c r="B96" s="60" t="s">
-        <v>109</v>
+    <row r="96" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B96" s="58" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="1048547" spans="16:17" ht="27">
+    <row r="1048547" spans="16:17" ht="28" x14ac:dyDescent="0.3">
       <c r="P1048547" s="53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q1048547" s="53"/>
     </row>
@@ -12602,7 +12635,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DE6F63CA-14EA-4EA5-97C5-344ECE563894}">
           <x14:formula1>
-            <xm:f>'C:\Users\Tuan.NguyenH12\Home Credit International a.s\SAP VN - Documents\FI CO MM AM\Documents for Task list FICO\GL Upload\[GL Upload Template_FICO_MM_V1.0.xlsx]Commodity'!#REF!</xm:f>
+            <xm:f>'/Users/huongle/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\Tuan.NguyenH12\Home Credit International a.s\SAP VN - Documents\FI CO MM AM\Documents for Task list FICO\GL Upload\[GL Upload Template_FICO_MM_V1.0.xlsx]Commodity'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>AM5:AM6</xm:sqref>
         </x14:dataValidation>
@@ -12613,13 +12646,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="8bbf85fc-ff04-4052-a117-aa82b0642e71" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12857,29 +12889,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="8bbf85fc-ff04-4052-a117-aa82b0642e71" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F6714FA-BE23-4AA4-A8E4-F8B9A75B31CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F28C3E7-C824-4A81-9208-D939F366CE27}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="217ac0a9-0329-4a27-84a2-4ffdd79eeee7"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4f7298a2-3f19-4417-a8ac-0b72751c7aa8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="8bbf85fc-ff04-4052-a117-aa82b0642e71"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12905,9 +12927,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F28C3E7-C824-4A81-9208-D939F366CE27}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F6714FA-BE23-4AA4-A8E4-F8B9A75B31CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="217ac0a9-0329-4a27-84a2-4ffdd79eeee7"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4f7298a2-3f19-4417-a8ac-0b72751c7aa8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="8bbf85fc-ff04-4052-a117-aa82b0642e71"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>